--- a/SprintBacklog.xlsx
+++ b/SprintBacklog.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\Documents\Semester 4\agile\utsagile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kelas\Semester 4\Pengembangan Perangkat Lunak Tangkas\uts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D20509B4-67B5-41E7-900F-C55D662F7D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C370B2AE-BA78-4BE3-B04D-2472457D635A}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -132,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -321,6 +320,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -330,62 +383,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,679 +699,668 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441C49BA-5EEB-4FA8-A4A4-78FE8A91F968}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:F26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="2">
+      <c r="B3" s="20">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="23">
         <v>1</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="23">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="11">
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2">
         <v>0.2</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="3">
         <v>1.3</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="13">
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="3">
         <v>0.5</v>
       </c>
-      <c r="J6" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="15">
+      <c r="J6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="21"/>
+      <c r="C7" s="9">
         <v>2</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="9">
         <v>2</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="17">
+      <c r="H7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="4">
         <v>0.7</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="21"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="17">
+      <c r="H8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="4">
         <v>2</v>
       </c>
-      <c r="J8" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17" t="s">
+      <c r="J8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="17">
+      <c r="H9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="4">
         <v>0.3</v>
       </c>
-      <c r="J9" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="14">
+      <c r="J9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="21"/>
+      <c r="C10" s="15">
         <v>3</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="15">
         <v>3</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="21"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="3">
         <v>2.5</v>
       </c>
-      <c r="J11" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="4"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13" t="s">
+      <c r="J11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="3">
         <v>1</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
+      <c r="J12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="17">
         <v>2</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="9">
         <v>4</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="9">
         <v>4</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="17">
+      <c r="H13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="4">
         <v>2.5</v>
       </c>
-      <c r="J13" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="17" t="s">
+      <c r="J13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="17">
+      <c r="H14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="4">
         <v>0.5</v>
       </c>
-      <c r="J14" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="14">
+      <c r="J14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="15">
         <v>5</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="15">
         <v>5</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="13">
+      <c r="H15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="3">
         <v>2</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="13">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="18"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+      <c r="C19" s="9">
+        <v>6</v>
+      </c>
+      <c r="D19" s="9">
+        <v>6</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="4">
         <v>2</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J21" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="19"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
+        <v>3</v>
+      </c>
+      <c r="C23" s="15">
+        <v>7</v>
+      </c>
+      <c r="D23" s="15">
+        <v>7</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="9">
+        <v>8</v>
+      </c>
+      <c r="D27" s="9">
+        <v>8</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13" t="s">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="13">
-        <v>3.5</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13" t="s">
+      <c r="I29" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="12"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="15">
-        <v>6</v>
-      </c>
-      <c r="D19" s="15">
-        <v>6</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="17">
+      <c r="H30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="5">
         <v>1</v>
       </c>
-      <c r="J19" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="17">
-        <v>2</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="7"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="8">
-        <v>3</v>
-      </c>
-      <c r="C23" s="14">
-        <v>7</v>
-      </c>
-      <c r="D23" s="14">
-        <v>7</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="13">
-        <v>2</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="13">
-        <v>1</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="15">
-        <v>8</v>
-      </c>
-      <c r="D27" s="15">
-        <v>8</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="17">
-        <v>1</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="J28" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="9"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="20">
-        <v>1</v>
-      </c>
-      <c r="J30" s="20" t="s">
+      <c r="J30" s="5" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="B13:B22"/>
@@ -1389,10 +1377,21 @@
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
